--- a/Fall 2021 LLO8180 due dates.xlsx
+++ b/Fall 2021 LLO8180 due dates.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lacey\Google Drive\Teaching\Vanderbilt\LLO 8180 - Applied Stats\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7186FE0-E286-4FF6-BD53-A8EE8CD83E57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEB4C37A-9C50-41E3-A5E4-71F93C8AAA64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{B29FE5CD-F94A-422C-B2B1-CD94BF271377}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>Week 1</t>
   </si>
@@ -143,16 +143,13 @@
     <t>due by midnight</t>
   </si>
   <si>
-    <t>Last class!</t>
-  </si>
-  <si>
     <t>upload to the LMS any time before 5:30pm central</t>
   </si>
   <si>
     <t>LLO8180 - Wednesday, Dr. Hartigan</t>
   </si>
   <si>
-    <t>TBD</t>
+    <t>Last class meeting!</t>
   </si>
 </sst>
 </file>
@@ -296,7 +293,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -326,6 +323,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -353,7 +353,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -807,24 +807,24 @@
   <dimension ref="A1:D37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="46" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B1" s="20" t="s">
-        <v>38</v>
+      <c r="B1" s="11" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B2" s="20" t="s">
-        <v>37</v>
+      <c r="B2" s="11" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -839,7 +839,7 @@
       <c r="A4" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="17">
+      <c r="B4" s="18">
         <v>44440</v>
       </c>
     </row>
@@ -847,13 +847,13 @@
       <c r="A5" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="18"/>
+      <c r="B5" s="19"/>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="17">
+      <c r="B6" s="18">
         <v>44447</v>
       </c>
     </row>
@@ -861,19 +861,19 @@
       <c r="A7" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="19"/>
+      <c r="B7" s="20"/>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="18"/>
+      <c r="B8" s="19"/>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="17">
+      <c r="B9" s="18">
         <v>44454</v>
       </c>
     </row>
@@ -881,13 +881,13 @@
       <c r="A10" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="18"/>
+      <c r="B10" s="19"/>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="12">
+      <c r="B11" s="13">
         <v>44461</v>
       </c>
     </row>
@@ -895,88 +895,88 @@
       <c r="A12" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="13"/>
+      <c r="B12" s="14"/>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="14"/>
+      <c r="B13" s="15"/>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="12">
-        <v>44468</v>
+      <c r="B14" s="13">
+        <v>44475</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="14"/>
+      <c r="B15" s="15"/>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B16" s="12">
-        <v>44475</v>
+      <c r="B16" s="13">
+        <v>44482</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B17" s="13"/>
+      <c r="B17" s="14"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B18" s="14"/>
+      <c r="B18" s="15"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B19" s="12">
-        <v>44482</v>
+      <c r="B19" s="13">
+        <v>44489</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B20" s="14"/>
+      <c r="B20" s="15"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B21" s="12">
-        <v>44489</v>
+      <c r="B21" s="13">
+        <v>44496</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B22" s="13"/>
+      <c r="B22" s="14"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B23" s="14"/>
+      <c r="B23" s="15"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B24" s="12">
-        <v>44496</v>
+      <c r="B24" s="13">
+        <v>44503</v>
       </c>
       <c r="D24" s="5"/>
     </row>
@@ -984,90 +984,90 @@
       <c r="A25" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B25" s="14"/>
+      <c r="B25" s="15"/>
       <c r="D25" s="5"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B26" s="12">
-        <v>44503</v>
+      <c r="B26" s="13">
+        <v>44510</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B27" s="13"/>
+      <c r="B27" s="14"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B28" s="14"/>
+      <c r="B28" s="15"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B29" s="12">
-        <v>44510</v>
+      <c r="B29" s="13">
+        <v>44517</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B30" s="14"/>
+      <c r="B30" s="15"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B31" s="12">
-        <v>44517</v>
+      <c r="B31" s="13">
+        <v>44531</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B32" s="13"/>
+      <c r="B32" s="14"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B33" s="14"/>
+      <c r="B33" s="15"/>
       <c r="D33" s="5"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B34" s="12">
-        <v>44531</v>
-      </c>
-      <c r="C34" s="11" t="s">
-        <v>36</v>
+      <c r="B34" s="13">
+        <v>44538</v>
+      </c>
+      <c r="C34" s="12" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B35" s="14"/>
-      <c r="C35" s="11"/>
+      <c r="B35" s="15"/>
+      <c r="C35" s="12"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B36" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="C36" s="11" t="s">
+      <c r="B36" s="16">
+        <v>44545</v>
+      </c>
+      <c r="C36" s="21" t="s">
         <v>35</v>
       </c>
       <c r="D36" s="5"/>
@@ -1076,8 +1076,8 @@
       <c r="A37" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B37" s="16"/>
-      <c r="C37" s="11"/>
+      <c r="B37" s="17"/>
+      <c r="C37" s="21"/>
       <c r="D37" s="5"/>
     </row>
   </sheetData>
